--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3392.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3392.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.628148637247503</v>
+        <v>1.191716432571411</v>
       </c>
       <c r="B1">
-        <v>2.364074856023926</v>
+        <v>3.010075807571411</v>
       </c>
       <c r="C1">
-        <v>2.608035013380405</v>
+        <v>5.442152976989746</v>
       </c>
       <c r="D1">
-        <v>3.10356614250599</v>
+        <v>2.291221380233765</v>
       </c>
       <c r="E1">
-        <v>3.598384501476183</v>
+        <v>1.398504853248596</v>
       </c>
     </row>
   </sheetData>
